--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3569.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3569.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167558692641269</v>
+        <v>0.6490908265113831</v>
       </c>
       <c r="B1">
-        <v>1.667459405682806</v>
+        <v>2.059133529663086</v>
       </c>
       <c r="C1">
-        <v>3.143373149221223</v>
+        <v>2.640430688858032</v>
       </c>
       <c r="D1">
-        <v>5.078278298427533</v>
+        <v>0.6737529039382935</v>
       </c>
       <c r="E1">
-        <v>1.201067835108452</v>
+        <v>0.7557560801506042</v>
       </c>
     </row>
   </sheetData>
